--- a/Departments/GERO.xlsx
+++ b/Departments/GERO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA70D9BE-7596-4BBE-8EE6-0D9879430ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D7AD30-294E-40B9-9B88-21DA74D2AE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1F19D52-6A36-4784-990D-DADBCCE8EC53}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{B1F19D52-6A36-4784-990D-DADBCCE8EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>GERO 998 - PhD Thesis</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,1026 +713,1026 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
         <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
         <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
         <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
         <v>86</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/GERO.xlsx
+++ b/Departments/GERO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D7AD30-294E-40B9-9B88-21DA74D2AE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A663DF-AC42-4144-8B55-F504E8C01B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{B1F19D52-6A36-4784-990D-DADBCCE8EC53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B1F19D52-6A36-4784-990D-DADBCCE8EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>GERO802</t>
   </si>
   <si>
-    <t>GERO 802 - Development and Evaluation of Health Promotion Programs for the Elderly</t>
-  </si>
-  <si>
     <t>GERO803</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>GERO 300 - Introduction to Gerontology</t>
   </si>
   <si>
-    <t>REQ-60 units. Students who have taken GERO 101 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>GERO302</t>
   </si>
   <si>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>REQ-60 units.  Students who have taken GERO 101 may not take this course for further credit. Breadth-Social Sciences.</t>
+  </si>
+  <si>
+    <t>GERO 802 - Development and Evaluation of Health Promotion Programs for Older Adults</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,10 +713,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -754,12 +754,12 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -768,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -783,12 +783,12 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -797,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -812,12 +812,12 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -826,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -839,11 +839,14 @@
       </c>
       <c r="H5" t="s">
         <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -852,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -872,7 +875,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -881,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -894,11 +897,14 @@
       </c>
       <c r="H7" t="s">
         <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -907,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -922,12 +928,12 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -936,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -951,12 +957,12 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -965,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -978,11 +984,14 @@
       </c>
       <c r="H10" t="s">
         <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -991,7 +1000,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1008,7 +1017,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1017,7 +1026,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1034,7 +1043,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1043,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1056,11 +1065,14 @@
       </c>
       <c r="H13" t="s">
         <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1069,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -1082,11 +1094,14 @@
       </c>
       <c r="H14" t="s">
         <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1095,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1112,7 +1127,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1121,7 +1136,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -1134,11 +1149,14 @@
       </c>
       <c r="H16" t="s">
         <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1147,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1160,11 +1178,14 @@
       </c>
       <c r="H17" t="s">
         <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1173,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1190,7 +1211,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1199,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1216,7 +1237,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1225,10 +1246,10 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1238,14 +1259,11 @@
       </c>
       <c r="H20" t="s">
         <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1254,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1267,14 +1285,11 @@
       </c>
       <c r="H21" t="s">
         <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1283,7 +1298,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1296,14 +1311,11 @@
       </c>
       <c r="H22" t="s">
         <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1312,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1325,14 +1337,11 @@
       </c>
       <c r="H23" t="s">
         <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1341,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1354,14 +1363,11 @@
       </c>
       <c r="H24" t="s">
         <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1370,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1383,14 +1389,11 @@
       </c>
       <c r="H25" t="s">
         <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1399,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1412,14 +1415,11 @@
       </c>
       <c r="H26" t="s">
         <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1428,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1454,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1467,14 +1467,11 @@
       </c>
       <c r="H28" t="s">
         <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1483,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1496,11 +1493,14 @@
       </c>
       <c r="H29" t="s">
         <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1509,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1561,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1575,13 +1575,10 @@
       <c r="H32" t="s">
         <v>13</v>
       </c>
-      <c r="I32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1590,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1605,7 +1602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -1631,7 +1628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -1657,7 +1654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -1683,44 +1680,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>95</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
         <v>96</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
